--- a/resources/experiment 1/predictions/single/LinearRegression/average time/Fallo Cardiaco.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/average time/Fallo Cardiaco.xlsx
@@ -488,7 +488,7 @@
         <v>28.01743318486904</v>
       </c>
       <c r="B5" t="n">
-        <v>22.24515852465426</v>
+        <v>22.24515852465427</v>
       </c>
       <c r="C5" t="n">
         <v>33.73824654069772</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.892922226191144</v>
+        <v>7.892922226191143</v>
       </c>
       <c r="B8" t="n">
         <v>3.923160654150339</v>
@@ -543,7 +543,7 @@
         <v>9.076173306733009</v>
       </c>
       <c r="B10" t="n">
-        <v>4.767348918656955</v>
+        <v>4.767348918656957</v>
       </c>
       <c r="C10" t="n">
         <v>14.41775252573267</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>24.35440786360888</v>
+        <v>24.35440786360889</v>
       </c>
       <c r="B12" t="n">
         <v>18.09060407366241</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>27.7840524385919</v>
+        <v>27.78405243859191</v>
       </c>
       <c r="B21" t="n">
         <v>21.54563189486305</v>
@@ -675,7 +675,7 @@
         <v>10.15272072196636</v>
       </c>
       <c r="B22" t="n">
-        <v>5.524884413726907</v>
+        <v>5.524884413726909</v>
       </c>
       <c r="C22" t="n">
         <v>15.9094276853256</v>
@@ -741,7 +741,7 @@
         <v>19.11175286974483</v>
       </c>
       <c r="B28" t="n">
-        <v>13.90668466154975</v>
+        <v>13.90668466154976</v>
       </c>
       <c r="C28" t="n">
         <v>24.83092716606905</v>
@@ -785,7 +785,7 @@
         <v>11.40929705082258</v>
       </c>
       <c r="B32" t="n">
-        <v>6.938620153869749</v>
+        <v>6.93862015386975</v>
       </c>
       <c r="C32" t="n">
         <v>16.67294258161942</v>
@@ -796,7 +796,7 @@
         <v>15.62875646210755</v>
       </c>
       <c r="B33" t="n">
-        <v>10.40833045563078</v>
+        <v>10.40833045563079</v>
       </c>
       <c r="C33" t="n">
         <v>21.84058242611806</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>28.70054435586247</v>
+        <v>28.70054435586248</v>
       </c>
       <c r="B37" t="n">
         <v>22.173188235778</v>
@@ -939,7 +939,7 @@
         <v>13.36895796633234</v>
       </c>
       <c r="B46" t="n">
-        <v>8.806606696054216</v>
+        <v>8.806606696054214</v>
       </c>
       <c r="C46" t="n">
         <v>18.82887189470262</v>
@@ -1008,12 +1008,12 @@
         <v>8.265703124575925</v>
       </c>
       <c r="C52" t="n">
-        <v>17.40809726568366</v>
+        <v>17.40809726568367</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>25.16419611557094</v>
+        <v>25.16419611557093</v>
       </c>
       <c r="B53" t="n">
         <v>18.6315076451407</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27.73070060593764</v>
+        <v>27.73070060593765</v>
       </c>
       <c r="B55" t="n">
         <v>21.50230551014472</v>
@@ -1060,7 +1060,7 @@
         <v>11.35594521816832</v>
       </c>
       <c r="B57" t="n">
-        <v>6.895293769151416</v>
+        <v>6.895293769151417</v>
       </c>
       <c r="C57" t="n">
         <v>16.65876247550463</v>
@@ -1093,7 +1093,7 @@
         <v>31.03366809995205</v>
       </c>
       <c r="B60" t="n">
-        <v>24.34445947099079</v>
+        <v>24.3444594709908</v>
       </c>
       <c r="C60" t="n">
         <v>38.15655159501732</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10.27939780293498</v>
+        <v>10.27939780293497</v>
       </c>
       <c r="B65" t="n">
-        <v>6.137758274081464</v>
+        <v>6.137758274081465</v>
       </c>
       <c r="C65" t="n">
         <v>15.1670873159117</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>26.81420868866707</v>
+        <v>26.81420868866708</v>
       </c>
       <c r="B68" t="n">
         <v>20.87474916922976</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.17591630454544</v>
+        <v>11.17591630454545</v>
       </c>
       <c r="B69" t="n">
-        <v>6.239093524078527</v>
+        <v>6.239093524078528</v>
       </c>
       <c r="C69" t="n">
         <v>17.38692273880373</v>
